--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfInsCheck.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfInsCheck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62874B3-A248-4156-B994-F563871E0247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0898814C-3F3A-4263-9C3B-38034849C385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -213,10 +213,6 @@
   </si>
   <si>
     <t>ReturnMsg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回應訊息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -275,6 +271,26 @@
     <t>0:換算業績、業務報酬
 1:介紹獎金、協辦獎金
 2:介紹人加碼獎勵津貼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnMsg2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnMsg3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回應訊息2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回應訊息3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回應訊息1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,10 +478,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -477,9 +493,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -492,9 +505,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,12 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -556,9 +560,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -596,9 +600,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,26 +635,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,26 +670,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -876,112 +846,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.21875" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="23"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="23"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1000,298 +970,330 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48.6">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>1</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="20">
+        <v>8</v>
+      </c>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="20">
+        <v>8</v>
+      </c>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17">
+        <v>8</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="20">
+        <v>6</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17">
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19">
-        <v>2</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19">
-        <v>3</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="19">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="20" t="s">
+      <c r="C20" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="17">
+        <v>13</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17">
+        <v>14</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="15" customFormat="1">
-      <c r="A14" s="19">
+      <c r="E25" s="20">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="22">
-        <v>8</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" s="15" customFormat="1">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="22">
-        <v>8</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="22">
-        <v>6</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
-        <v>12</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
-        <v>15</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="22"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="22"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1339,13 +1341,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfInsCheck.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfInsCheck.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0898814C-3F3A-4263-9C3B-38034849C385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -224,10 +223,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo ASC, FacmNo ASC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Kind</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -241,10 +236,6 @@
   </si>
   <si>
     <t>檢核工作月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kind,CustNo,FacmNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -291,13 +282,41 @@
   </si>
   <si>
     <t>回應訊息1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>業績工作月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kind,CustNo,FacmNo,CheckWorkMonth,PerfWorkMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfWorkMonth= ,AND Kind= ,AND CustNo= ,AND FacmNo=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPerfWorkMonthFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckWorkMonth DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfWorkMonth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC, FacmNo ASC, PerfWorkMonth DESC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -379,7 +398,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +408,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,6 +553,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -544,7 +578,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,9 +594,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,9 +634,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,7 +706,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -845,11 +879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -865,12 +899,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>51</v>
@@ -880,8 +914,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -893,12 +927,12 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -908,10 +942,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -919,10 +953,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="3"/>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -930,10 +964,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -941,10 +975,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -979,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>21</v>
@@ -991,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1137,19 +1171,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="20">
         <v>6</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1160,7 +1194,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>50</v>
@@ -1174,10 +1208,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>50</v>
@@ -1191,10 +1225,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>50</v>
@@ -1207,79 +1241,89 @@
       <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="20"/>
+      <c r="B22" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="24">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="20">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="E24" s="20">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E26" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="20"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="17"/>
@@ -1294,6 +1338,13 @@
       <c r="C31" s="19"/>
       <c r="D31" s="18"/>
       <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1312,12 +1363,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1341,13 +1392,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfInsCheck.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfInsCheck.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33B900-4106-4EB7-AAC7-A8DF4F1659A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -115,10 +116,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -311,13 +308,16 @@
   <si>
     <t>CustNo ASC, FacmNo ASC, PerfWorkMonth DESC</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,7 +578,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,9 +594,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -634,9 +634,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,7 +706,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -879,14 +879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" style="14" customWidth="1"/>
@@ -898,22 +898,22 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -926,13 +926,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -941,7 +941,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1008,15 +1008,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="48.6">
+    <row r="9" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>21</v>
@@ -1025,10 +1025,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>21</v>
@@ -1045,12 +1045,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>19</v>
@@ -1062,15 +1062,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>21</v>
@@ -1079,32 +1079,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>22</v>
@@ -1114,15 +1114,15 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>22</v>
@@ -1132,129 +1132,129 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="20">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="20">
         <v>6</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="20">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>14</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="24">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
@@ -1265,81 +1265,81 @@
         <v>24</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>27</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>30</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="18"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="18"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="18"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
@@ -1363,15 +1363,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="51.21875" style="1" customWidth="1"/>
@@ -1379,7 +1379,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1390,26 +1390,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
